--- a/biology/Botanique/S'ozzastru/S'ozzastru.xlsx
+++ b/biology/Botanique/S'ozzastru/S'ozzastru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%27ozzastru</t>
+          <t>S'ozzastru</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-S'ozzastru (l'oléastre en langue sarde) est le nom donné au plus ancien olivier parmi d'autres tous millénaires, situés à Santu Baltòlu di Karana sur le territoire de la commune italienne de Luras, dans la Province de Sassari en Sardaigne, à proximité du lac Liscia et de la chapelle San Bartolomeo[1],[2]. Une estimation lui attribue un âge de 3 000 ans à 4 000 ans, ce qui en ferait un des plus anciens arbres d'Italie[3].
+S'ozzastru (l'oléastre en langue sarde) est le nom donné au plus ancien olivier parmi d'autres tous millénaires, situés à Santu Baltòlu di Karana sur le territoire de la commune italienne de Luras, dans la Province de Sassari en Sardaigne, à proximité du lac Liscia et de la chapelle San Bartolomeo,. Une estimation lui attribue un âge de 3 000 ans à 4 000 ans, ce qui en ferait un des plus anciens arbres d'Italie.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%27ozzastru</t>
+          <t>S'ozzastru</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S'ozzastru n'est pas l'unique nom donné à cet olivier millénaire. Il en existe plusieurs autres dont l'oléastre, qui est la traduction française du nom sarde, ou encore des surnoms relatifs à son grand âge comme : Le grand patriarche (Il grande Patriarca en italien)[4] ou L'olivier millénaire (olivastro millenario en italien)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S'ozzastru n'est pas l'unique nom donné à cet olivier millénaire. Il en existe plusieurs autres dont l'oléastre, qui est la traduction française du nom sarde, ou encore des surnoms relatifs à son grand âge comme : Le grand patriarche (Il grande Patriarca en italien) ou L'olivier millénaire (olivastro millenario en italien).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%27ozzastru</t>
+          <t>S'ozzastru</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre a une circonférence de 12 mètres (mesurée à la hauteur de 1,30 mètre) et 8 mètres de haut[3]. Certaines sources évoquent une hauteur plus importante au-delà de 10 mètres[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre a une circonférence de 12 mètres (mesurée à la hauteur de 1,30 mètre) et 8 mètres de haut. Certaines sources évoquent une hauteur plus importante au-delà de 10 mètres,.
 			L'arbre en 2008
 			L'arbre en 2006
 			L'arbre en 2005 ou 2006
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%27ozzastru</t>
+          <t>S'ozzastru</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Classement et maintien</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1991, l'arbre est classé dans une liste de vingt arbres (un par province italienne) en tant que « représentant » sarde[3].
-Selon le Corps forestier d’État italien, il serait le plus vieil arbre d'Italie avec 3 000 ans d’existence[5].
-Depuis la seconde moitié des années 2000, une coopérative locale s'occupe du maintien de s'ozzastru et plus généralement de l’oliveraie de Santu Baltòlu di Karana qui a été victime de nombreux épisodes de vandalisme dans la dernière décennie. Elle organise ainsi des visites guidées[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1991, l'arbre est classé dans une liste de vingt arbres (un par province italienne) en tant que « représentant » sarde.
+Selon le Corps forestier d’État italien, il serait le plus vieil arbre d'Italie avec 3 000 ans d’existence.
+Depuis la seconde moitié des années 2000, une coopérative locale s'occupe du maintien de s'ozzastru et plus généralement de l’oliveraie de Santu Baltòlu di Karana qui a été victime de nombreux épisodes de vandalisme dans la dernière décennie. Elle organise ainsi des visites guidées.
 </t>
         </is>
       </c>
